--- a/WaterSupplyControl/WaterSupplyControl.xlsx
+++ b/WaterSupplyControl/WaterSupplyControl.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emchenko\Documents\Arduino\WaterSupplyControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A69ED1C-53D3-4585-BC27-DCEC0B7588A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F170343F-3FC5-4070-9652-38328A225ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="components" sheetId="2" r:id="rId1"/>
+    <sheet name="water sensor" sheetId="1" r:id="rId2"/>
+    <sheet name="WaterFLow" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Contactless water sensor</t>
   </si>
@@ -74,13 +69,232 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>WaterSensor Hi</t>
+  </si>
+  <si>
+    <t>WaterSensor Med</t>
+  </si>
+  <si>
+    <t>WaterSensor Lo</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Waterflow sensor</t>
+  </si>
+  <si>
+    <t>interrupt pin</t>
+  </si>
+  <si>
+    <t>YF-B5 water flow sensor</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>0mm x0mm x0mm</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>G.W 131g</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Exclude</t>
+  </si>
+  <si>
+    <t>Mini. Wokring Voltage</t>
+  </si>
+  <si>
+    <t>DC 4.5V</t>
+  </si>
+  <si>
+    <t>Max. Working Current</t>
+  </si>
+  <si>
+    <t>15mA (DC 5V)</t>
+  </si>
+  <si>
+    <t>Working Voltage</t>
+  </si>
+  <si>
+    <t>DC 5V~15V</t>
+  </si>
+  <si>
+    <t>Flow Rate Range</t>
+  </si>
+  <si>
+    <t>1~30L/min</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>F=(6.6*Q)Q=L/MIN±3%</t>
+  </si>
+  <si>
+    <t>Load Capacity</t>
+  </si>
+  <si>
+    <t>≤10mA (DC 5V)</t>
+  </si>
+  <si>
+    <t>Operating Temperature</t>
+  </si>
+  <si>
+    <t>0 ~ 80℃</t>
+  </si>
+  <si>
+    <t>Liquid Temperature</t>
+  </si>
+  <si>
+    <t>≤120℃</t>
+  </si>
+  <si>
+    <t>Operating Humidity</t>
+  </si>
+  <si>
+    <t>35%～90%RH</t>
+  </si>
+  <si>
+    <t>Water Pressure</t>
+  </si>
+  <si>
+    <t>≤1.75MPa</t>
+  </si>
+  <si>
+    <t>Storage Temperature</t>
+  </si>
+  <si>
+    <t>-25～+ 80℃</t>
+  </si>
+  <si>
+    <t>Storage Humidity</t>
+  </si>
+  <si>
+    <t>25%～95%RH</t>
+  </si>
+  <si>
+    <t>Interface Dimensions</t>
+  </si>
+  <si>
+    <t>G3/4Inch</t>
+  </si>
+  <si>
+    <t>Error Range</t>
+  </si>
+  <si>
+    <t>(1~25L\MIN) ±3%</t>
+  </si>
+  <si>
+    <t>Material Description</t>
+  </si>
+  <si>
+    <t>H57Copper+POM</t>
+  </si>
+  <si>
+    <t>Output Pulse High Level</t>
+  </si>
+  <si>
+    <t>&gt;DC 4.7V (Input Voltage DC5V)</t>
+  </si>
+  <si>
+    <t>Output Pulse Low Level</t>
+  </si>
+  <si>
+    <t>&lt;DC 0.5V (Input Voltage DC5V)</t>
+  </si>
+  <si>
+    <t>Output Pulse Duty Cycle</t>
+  </si>
+  <si>
+    <t>50%±10%</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>digital pin</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>normal at HIGH level</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Relay 1</t>
+  </si>
+  <si>
+    <t>Relay 2</t>
+  </si>
+  <si>
+    <t>Relay 3</t>
+  </si>
+  <si>
+    <t>Relay 4</t>
+  </si>
+  <si>
+    <t>Motor 1</t>
+  </si>
+  <si>
+    <t>Motor 2</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>DHT22</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Contact sensor for door</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>не подключен</t>
+  </si>
+  <si>
+    <t>3V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +327,73 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,12 +425,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -164,6 +464,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="deviatore_schema_funzionamento">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50FA2589-D6F9-488A-9289-A92F8F014B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4000500" y="1924050"/>
+          <a:ext cx="4572000" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -586,11 +952,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0748FA8F-6B61-4D16-A1AC-B4D429E05653}">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C6101F-AAA7-461F-8460-D35B041821C2}">
+  <dimension ref="A3:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="6">
+        <f>COUNTA(D2:D19)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0748FA8F-6B61-4D16-A1AC-B4D429E05653}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,52 +1121,276 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C42" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J44" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8F8D08-EB2F-4FE7-8856-D5C79DC74A6F}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>